--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂1.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂1.xlsx
@@ -2893,7 +2893,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂1.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂1.xlsx
@@ -202,11 +202,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -240,13 +240,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -261,18 +254,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,11 +291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,8 +308,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,10 +338,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,17 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,14 +361,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,8 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,7 +429,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,55 +531,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,37 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,43 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,6 +642,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -653,6 +662,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,25 +711,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -706,183 +736,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -902,10 +902,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -926,7 +926,7 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2893,7 +2893,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂1.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂1.xlsx
@@ -143,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -182,6 +182,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,9 +210,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,21 +234,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -234,32 +248,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,7 +282,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,21 +297,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,14 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +401,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,157 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,17 +592,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +617,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,46 +675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,148 +694,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -855,10 +855,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -915,13 +915,13 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2872,11 +2872,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂1.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="29140" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2872,11 +2872,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3:P6"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
